--- a/medicine/Pharmacie/Camille_Louis_Husson/Camille_Louis_Husson.xlsx
+++ b/medicine/Pharmacie/Camille_Louis_Husson/Camille_Louis_Husson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camille Louis Husson, né le 7 mars 1843 et mort le  28 août 1886 à Toul (Meurthe-et-Moselle) à l'âge de 43 ans, est un pharmacien toulois et un érudit local  du XIXe siècle. Il est le fils de Nicolas Husson et Marie-Fanie Masson.
 </t>
@@ -511,7 +523,9 @@
           <t>Le pharmacien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir fait ses études de pharmacie à l'École impériale du Service de Santé militaire de Strasbourg où Camille Louis Husson est reçu docteur en 1868, il travaille à Toul, à la pharmacie paternelle. Il devient chercheur en chimie analytique, bromatologie, toxicologie, expertise et hygiène, correspondant national de l'Académie de médecine et président de la Société de Pharmacie de Lorraine.
 </t>
@@ -542,9 +556,11 @@
           <t>Le passionné d'archéologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camille Louis Husson se passionne également pour l'archéologie et les sciences naturelles, comme son père. En 1858, il découvre de manière fortuite le Trou des Celtes[1], une grotte située sur le territoire de la commune de Pierre-la-Treiche en Meurthe-et-Moselle et nommée ainsi par son père Nicolas[2]. Fouillée de 1863 à 1867, la grotte livre des ossements humains et des objets d'époque magdalénienne. À partir de 1863 Camille et son père, premiers spéléologues du toulois, commencent l'exploration systématique de la Grotte Sainte-Reine, située sur la même commune, puis de la Grotte du Géant à Gondreville.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camille Louis Husson se passionne également pour l'archéologie et les sciences naturelles, comme son père. En 1858, il découvre de manière fortuite le Trou des Celtes, une grotte située sur le territoire de la commune de Pierre-la-Treiche en Meurthe-et-Moselle et nommée ainsi par son père Nicolas. Fouillée de 1863 à 1867, la grotte livre des ossements humains et des objets d'époque magdalénienne. À partir de 1863 Camille et son père, premiers spéléologues du toulois, commencent l'exploration systématique de la Grotte Sainte-Reine, située sur la même commune, puis de la Grotte du Géant à Gondreville.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Du fait du métier, lieu d'exercice et passion communs avec son père, de nombreux ouvrages sont attribués par erreur à Camille, en particulier l'ensemble des études archéologiques, géologiques, paléontologiques et spéléologiques menées sur le Toulois et publiées entre 1846 (il avait alors 3 ans !) et 1880... Globalement la quasi-totalité des ouvrages et communications signés Husson sont à attribuer au père ; ceux de Camille font apparaître C. ou Camille ou Camille Louis ou Husson fils.
 (1867) - « Sur la recherche analytique des sels de chrome », Pharm. Chim. no 7, p. 414
